--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3675.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3675.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.21857142291069</v>
+        <v>5.486320018768311</v>
       </c>
       <c r="B1">
-        <v>1.913003194258873</v>
+        <v>4.374085426330566</v>
       </c>
       <c r="C1">
-        <v>4.815012004570256</v>
+        <v>2.938593626022339</v>
       </c>
       <c r="D1">
-        <v>4.842886894208192</v>
+        <v>1.934455156326294</v>
       </c>
       <c r="E1">
-        <v>1.211551643452085</v>
+        <v>1.291341543197632</v>
       </c>
     </row>
   </sheetData>
